--- a/CC/CC进度.xlsx
+++ b/CC/CC进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>大模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,106 @@
   </si>
   <si>
     <t>支付成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款；待发货；待收货；已完成；已取消；退款中；已退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以旧换新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -270,23 +370,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -591,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,7 +789,7 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -628,351 +813,537 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="A24:A30"/>
@@ -980,9 +1351,15 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CC/CC进度.xlsx
+++ b/CC/CC进度.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berber/Desktop/CC/cc/CC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>大模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,13 +325,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,7 +340,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,38 +370,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -396,24 +409,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -421,7 +434,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -441,13 +454,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,13 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,12 +545,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -567,12 +580,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -778,21 +791,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,8 +825,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -826,8 +839,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -838,8 +851,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -850,9 +863,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -864,9 +877,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -876,9 +889,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -888,9 +901,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -900,9 +913,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
@@ -912,9 +925,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -924,9 +937,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -936,9 +949,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -948,8 +961,8 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -960,8 +973,8 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -976,9 +989,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -990,9 +1003,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1002,8 +1015,8 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1014,9 +1027,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1028,9 +1041,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1040,21 +1053,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1062,9 +1077,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1072,9 +1087,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1082,8 +1097,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1094,9 +1109,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1106,9 +1121,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1116,9 +1131,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
@@ -1126,8 +1141,8 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1136,8 +1151,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1146,8 +1161,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -1156,8 +1171,8 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1168,8 +1183,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
@@ -1178,9 +1193,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1192,9 +1207,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1202,9 +1217,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
@@ -1212,8 +1227,8 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
@@ -1222,9 +1237,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1234,9 +1249,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
@@ -1244,9 +1259,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>56</v>
       </c>
@@ -1254,9 +1269,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1266,9 +1281,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="12"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
@@ -1276,9 +1291,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1288,9 +1303,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1298,9 +1313,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1310,9 +1325,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="6"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="2" t="s">
         <v>65</v>
       </c>
@@ -1320,17 +1335,17 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="15" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>67</v>
       </c>
@@ -1344,6 +1359,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="A24:A30"/>
@@ -1351,12 +1372,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CC/CC进度.xlsx
+++ b/CC/CC进度.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berber/Desktop/CC/cc/CC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -16,9 +11,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>大模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,12 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +470,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,21 +783,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,8 +817,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -839,8 +831,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -851,8 +843,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -863,9 +855,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -877,9 +869,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -889,9 +881,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -901,9 +893,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -913,9 +905,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
@@ -925,9 +917,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -937,9 +929,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -949,9 +941,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -961,8 +953,8 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,8 +965,8 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -989,9 +981,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1003,9 +995,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1015,8 +1007,8 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1027,9 +1019,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1041,9 +1033,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1053,9 +1045,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1067,29 +1059,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1097,8 +1093,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1109,9 +1105,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1121,9 +1117,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1131,9 +1127,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
@@ -1141,8 +1137,8 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1151,8 +1147,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14"/>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1161,8 +1157,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -1171,8 +1167,8 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1183,8 +1179,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
@@ -1193,9 +1189,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1207,9 +1203,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1217,9 +1213,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
@@ -1227,8 +1223,8 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
@@ -1237,9 +1233,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1249,9 +1245,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
@@ -1259,9 +1255,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="15"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="2" t="s">
         <v>56</v>
       </c>
@@ -1269,9 +1265,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1281,9 +1277,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
@@ -1291,9 +1287,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1303,9 +1299,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="15"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1313,9 +1309,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1325,9 +1321,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="2" t="s">
         <v>65</v>
       </c>
@@ -1335,9 +1331,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
         <v>66</v>
       </c>
@@ -1345,7 +1341,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>67</v>
       </c>
@@ -1359,12 +1355,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="A24:A30"/>
@@ -1372,6 +1362,12 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CC/CC进度.xlsx
+++ b/CC/CC进度.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>大模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1027,7 +1027,9 @@
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>35</v>
@@ -1039,7 +1041,9 @@
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>36</v>
@@ -1089,7 +1093,9 @@
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -1101,7 +1107,9 @@
         <v>39</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>

--- a/CC/CC进度.xlsx
+++ b/CC/CC进度.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berber/Desktop/CC/cc/CC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -313,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +455,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -470,12 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,21 +791,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,8 +825,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -831,8 +839,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -843,8 +851,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -855,9 +863,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -869,9 +877,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -881,9 +889,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -893,9 +901,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -905,9 +913,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
@@ -917,9 +925,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -929,9 +937,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -941,9 +949,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -953,8 +961,8 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -965,8 +973,8 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -981,9 +989,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -995,9 +1003,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1007,8 +1015,8 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1019,9 +1027,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1035,9 +1043,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1049,9 +1057,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1063,9 +1071,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1075,9 +1083,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1087,9 +1095,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1099,8 +1107,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1113,9 +1121,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1125,9 +1133,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1135,9 +1143,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
@@ -1145,8 +1153,8 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1155,8 +1163,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1165,18 +1173,18 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1187,8 +1195,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
@@ -1197,9 +1205,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1211,9 +1219,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1221,9 +1229,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
@@ -1231,8 +1239,8 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
@@ -1241,9 +1249,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1253,9 +1261,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
@@ -1263,9 +1271,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
-      <c r="B39" s="13"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>56</v>
       </c>
@@ -1273,9 +1281,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1285,9 +1293,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="12"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
@@ -1295,9 +1303,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="9"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1307,9 +1315,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
-      <c r="B43" s="13"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1317,9 +1325,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="9"/>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1329,9 +1337,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="2" t="s">
         <v>65</v>
       </c>
@@ -1339,9 +1347,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1357,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>67</v>
       </c>
@@ -1363,6 +1371,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="A24:A30"/>
@@ -1370,12 +1384,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
